--- a/results/mp/tinybert/corona/confidence/210/0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,163 +40,184 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -554,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -673,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7647058823529411</v>
+        <v>0.6404109589041096</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.76</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7272727272727273</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C6">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>42</v>
+        <v>405</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3703703703703703</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.369098712446352</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3571428571428572</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,219 +962,123 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>23</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L12">
+        <v>47</v>
+      </c>
+      <c r="M12">
+        <v>47</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K9">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L9">
-        <v>48</v>
-      </c>
-      <c r="M9">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>68</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L10">
-        <v>23</v>
-      </c>
-      <c r="M10">
-        <v>23</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.175</v>
-      </c>
-      <c r="C11">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>66</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L11">
-        <v>46</v>
-      </c>
-      <c r="M11">
-        <v>46</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>94</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L12">
-        <v>43</v>
-      </c>
-      <c r="M12">
-        <v>43</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>123</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.8046875</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="L14">
         <v>31</v>
       </c>
-      <c r="K14">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L14">
-        <v>41</v>
-      </c>
       <c r="M14">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,21 +1116,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1217,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7307692307692307</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1243,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7241379310344828</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1269,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.717948717948718</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1295,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.725</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1321,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6986301369863014</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L20">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="M20">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1347,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.70625</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1373,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6551724137931034</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1399,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6470588235294118</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1425,21 +1350,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.631578947368421</v>
+        <v>0.64</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1451,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6060606060606061</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1477,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1503,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L27">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1529,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5666666666666667</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1555,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5633802816901409</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L29">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1581,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1607,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5069444444444444</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L31">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="M31">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1633,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>71</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4418604651162791</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L32">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1659,21 +1584,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4285714285714285</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="M33">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1685,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1711,21 +1636,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.391304347826087</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1737,21 +1662,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>56</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3684210526315789</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1763,21 +1688,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3513513513513514</v>
+        <v>0.34375</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1789,21 +1714,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1815,21 +1740,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.0505050505050505</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1841,21 +1766,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>188</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.02192982456140351</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1867,21 +1792,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>446</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.009163802978235968</v>
+        <v>0.02796420581655481</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1893,59 +1818,345 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>1730</v>
+        <v>869</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.008928571428571428</v>
+        <v>0.02434077079107505</v>
       </c>
       <c r="L42">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N42">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="O42">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>1110</v>
+        <v>962</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43">
+        <v>0.02333333333333333</v>
+      </c>
+      <c r="L43">
+        <v>28</v>
+      </c>
+      <c r="M43">
+        <v>28</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44">
+        <v>0.02330743618201998</v>
+      </c>
+      <c r="L44">
+        <v>21</v>
+      </c>
+      <c r="M44">
+        <v>21</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45">
+        <v>0.01802539942646456</v>
+      </c>
+      <c r="L45">
+        <v>44</v>
+      </c>
+      <c r="M45">
+        <v>48</v>
+      </c>
+      <c r="N45">
+        <v>0.92</v>
+      </c>
+      <c r="O45">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46">
+        <v>0.01493233784414372</v>
+      </c>
+      <c r="L46">
+        <v>32</v>
+      </c>
+      <c r="M46">
+        <v>32</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K43">
-        <v>0.00835509138381201</v>
-      </c>
-      <c r="L43">
-        <v>16</v>
-      </c>
-      <c r="M43">
-        <v>17</v>
-      </c>
-      <c r="N43">
+      <c r="K47">
+        <v>0.01461769115442279</v>
+      </c>
+      <c r="L47">
+        <v>39</v>
+      </c>
+      <c r="M47">
+        <v>44</v>
+      </c>
+      <c r="N47">
+        <v>0.89</v>
+      </c>
+      <c r="O47">
+        <v>0.11</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48">
+        <v>0.01193467336683417</v>
+      </c>
+      <c r="L48">
+        <v>19</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>0.9</v>
+      </c>
+      <c r="O48">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49">
+        <v>0.01041249499399279</v>
+      </c>
+      <c r="L49">
+        <v>52</v>
+      </c>
+      <c r="M49">
+        <v>54</v>
+      </c>
+      <c r="N49">
+        <v>0.96</v>
+      </c>
+      <c r="O49">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50">
+        <v>0.01039861351819757</v>
+      </c>
+      <c r="L50">
+        <v>24</v>
+      </c>
+      <c r="M50">
+        <v>25</v>
+      </c>
+      <c r="N50">
+        <v>0.96</v>
+      </c>
+      <c r="O50">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51">
+        <v>0.00966183574879227</v>
+      </c>
+      <c r="L51">
+        <v>30</v>
+      </c>
+      <c r="M51">
+        <v>32</v>
+      </c>
+      <c r="N51">
         <v>0.9399999999999999</v>
       </c>
-      <c r="O43">
+      <c r="O51">
         <v>0.06000000000000005</v>
       </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>1899</v>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52">
+        <v>0.009259259259259259</v>
+      </c>
+      <c r="L52">
+        <v>22</v>
+      </c>
+      <c r="M52">
+        <v>25</v>
+      </c>
+      <c r="N52">
+        <v>0.88</v>
+      </c>
+      <c r="O52">
+        <v>0.12</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53">
+        <v>0.008548983364140481</v>
+      </c>
+      <c r="L53">
+        <v>37</v>
+      </c>
+      <c r="M53">
+        <v>37</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K54">
+        <v>0.007558139534883721</v>
+      </c>
+      <c r="L54">
+        <v>39</v>
+      </c>
+      <c r="M54">
+        <v>44</v>
+      </c>
+      <c r="N54">
+        <v>0.89</v>
+      </c>
+      <c r="O54">
+        <v>0.11</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>5121</v>
       </c>
     </row>
   </sheetData>
